--- a/data/SampleV.01/Elementplan_SampleV.01_raw_data.xlsx
+++ b/data/SampleV.01/Elementplan_SampleV.01_raw_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="194">
   <si>
     <t>AttributID</t>
   </si>
@@ -289,54 +289,65 @@
     <t>Unique floor designation</t>
   </si>
   <si>
-    <t>Recommendation: &lt;br&gt;
-- Room Identifier: Persistent Unique Numerical Designation &lt;br&gt;
-- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 &lt;br&gt;
-&lt;br&gt;
-Key Principles for Effective Data Management:
-1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: &lt;br&gt;
-   - Position (not relocated to a different part of the building)
-   - General size (minor adjustments are acceptable)
-   - Primary function (e.g., remains an office or meeting room)
-2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:
-   - Prevents confusion in historical data analysis
-   - Avoids potential errors in facility management systems
-3. Consistency: Apply identifiers systematically across all building documentation and systems:
-   - Floor plans
-   - Building Information Models (BIM)
-   - Facility management software
-   - Maintenance records
-4. Format Standardization: Adopt a consistent format for all identifiers:
-   - E.g., three-digit numbers preceded by # (#001, #002, etc.)
-   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)
-5. Change Management: Implement a formal process for identifier changes when necessary:
-   - Document reasons for changes
-   - Update all relevant systems and documentation
-   - Maintain a change log for future reference
-6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:
-   - Explain that the current identifiers are technical room numbers crucial for data integrity
-   - Offer to add a separate, non-technical room number attribute to accommodate their preference
-   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations
+    <t>Recommendation: &lt;br&gt;_x000D_
+- Room Identifier: Persistent Unique Numerical Designation &lt;br&gt;_x000D_
+- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 &lt;br&gt;_x000D_
+&lt;br&gt;_x000D_
+Key Principles for Effective Data Management:_x000D_
+_x000D_
+1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: &lt;br&gt;_x000D_
+   - Position (not relocated to a different part of the building)_x000D_
+   - General size (minor adjustments are acceptable)_x000D_
+   - Primary function (e.g., remains an office or meeting room)_x000D_
+_x000D_
+2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:_x000D_
+   - Prevents confusion in historical data analysis_x000D_
+   - Avoids potential errors in facility management systems_x000D_
+_x000D_
+3. Consistency: Apply identifiers systematically across all building documentation and systems:_x000D_
+   - Floor plans_x000D_
+   - Building Information Models (BIM)_x000D_
+   - Facility management software_x000D_
+   - Maintenance records_x000D_
+_x000D_
+4. Format Standardization: Adopt a consistent format for all identifiers:_x000D_
+   - E.g., three-digit numbers preceded by # (#001, #002, etc.)_x000D_
+   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)_x000D_
+_x000D_
+5. Change Management: Implement a formal process for identifier changes when necessary:_x000D_
+   - Document reasons for changes_x000D_
+   - Update all relevant systems and documentation_x000D_
+   - Maintain a change log for future reference_x000D_
+_x000D_
+6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:_x000D_
+   - Explain that the current identifiers are technical room numbers crucial for data integrity_x000D_
+   - Offer to add a separate, non-technical room number attribute to accommodate their preference_x000D_
+   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations_x000D_
+_x000D_
 Remember: While it may seem tempting to reorganize or reuse identifiers, maintaining consistency over time is crucial for reliable long-term data management and analysis in facility operations. Technical room numbers should remain stable, even if additional labeling schemes are introduced for client use.</t>
   </si>
   <si>
-    <t>Room Type Naming: A Key Element in Building Information Management
-Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage.
-Best Practices:
-1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")
-2. Establish a standardized list of room types for your organization
-3. Avoid abbreviations or codes that may be unclear to some users
-4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")
-5. Regularly review and update naming conventions to ensure they meet evolving needs
+    <t>Room Type Naming: A Key Element in Building Information Management_x000D_
+_x000D_
+Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage._x000D_
+_x000D_
+Best Practices:_x000D_
+1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")_x000D_
+2. Establish a standardized list of room types for your organization_x000D_
+3. Avoid abbreviations or codes that may be unclear to some users_x000D_
+4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")_x000D_
+5. Regularly review and update naming conventions to ensure they meet evolving needs_x000D_
+_x000D_
 Remember: Consistent and thoughtful room type naming is foundational for effective building information management. It supports improved decision-making, efficiency, and long-term data usability across various aspects of facility management, energy modeling, space utilization, and regulatory compliance.</t>
   </si>
   <si>
-    <t>Recommendation:
+    <t>Recommendation:_x000D_
 - Name them consistently for simple filtering. E.g. Void</t>
   </si>
   <si>
-    <t>The attribute defines space location:
-True: Outside (e.g., balcony)
+    <t>The attribute defines space location:_x000D_
+_x000D_
+True: Outside (e.g., balcony)_x000D_
 False: Inside (e.g., kitchen, parking garage)</t>
   </si>
   <si>
@@ -346,11 +357,11 @@
     <t>Set the Predefined Type to GFA (Gross Floor Area).</t>
   </si>
   <si>
-    <t>Recommendation:
+    <t>Recommendation:_x000D_
 - Specify window type via PredefinedType</t>
   </si>
   <si>
-    <t>Recommendation:
+    <t>Recommendation:_x000D_
 - Specify door type via PredefinedType</t>
   </si>
   <si>
@@ -366,54 +377,63 @@
     <t>Eindeutige Geschossbezeichnung</t>
   </si>
   <si>
-    <t>Empfehlung:\n
-- Raumkennung: Persistente eindeutige numerische Bezeichnung \n
-- Definition: Ein eindeutiger, dauerhafter numerischer Code, der jedem Raum zur unmissverständlichen Identifizierung innerhalb eines Gebäudes oder Komplexes zugewiesen wird. Z.B. #007 \n
-\n
-Schlüsselprinzipien für effektives Datenmanagement:
-1. Beständigkeit: Behalten Sie dieselbe Kennung bei, solange die Kernattribute des Raums unverändert bleiben:
-   - Position (nicht in einen anderen Teil des Gebäudes verlegt)
-   - Allgemeine Größe (geringfügige Anpassungen sind akzeptabel)
-   - Primäre Funktion (z.B. bleibt ein Büro oder Besprechungsraum)
-2. Keine Wiederverwendung: Alte Kennungen ausmustern, statt sie neuen Räumen zuzuweisen:
-   - Verhindert Verwirrung bei historischen Datenanalysen
-   - Vermeidet potenzielle Fehler in Facility-Management-Systemen
-3. Konsistenz: Kennungen systematisch in allen Gebäudedokumentationen und -systemen anwenden:
-   - Grundrisse
-   - Gebäudeinformationsmodelle (BIM)
-   - Facility-Management-Software
-   - Wartungsaufzeichnungen
-4. Formatstandardisierung: Ein einheitliches Format für alle Kennungen verwenden:
-   - Z.B. dreistellige Zahlen mit vorangestelltem # (#001, #002, usw.)
-   - Für größere Komplexe Gebäude- oder Etagenpräfixe in Betracht ziehen (B1-#007, B2-#007)
-5. Änderungsmanagement: Einen formalen Prozess für notwendige Kennungsänderungen implementieren:
-   - Gründe für Änderungen dokumentieren
-   - Alle relevanten Systeme und Dokumentationen aktualisieren
-   - Änderungsprotokoll für zukünftige Referenzen führen
-6. Kundengetriebenen Änderungen widerstehen: Wenn Kunden während der Projektdurchführung Änderungen der Raumnummerierung wünschen:
-   - Erklären Sie, dass die aktuellen Kennungen technische Raumnummern sind, die für die Datenintegrität entscheidend sind
-   - Bieten Sie an, ein separates, nicht-technisches Raumnummernattribut hinzuzufügen, um ihre Präferenz zu berücksichtigen
-   - Betonen Sie die Wichtigkeit der Beibehaltung der ursprünglichen Kennungen für die Systemkonsistenz und zukünftige Betriebsabläufe
+    <t>Empfehlung:\n_x000D_
+- Raumkennung: Persistente eindeutige numerische Bezeichnung \n_x000D_
+- Definition: Ein eindeutiger, dauerhafter numerischer Code, der jedem Raum zur unmissverständlichen Identifizierung innerhalb eines Gebäudes oder Komplexes zugewiesen wird. Z.B. #007 \n_x000D_
+\n_x000D_
+Schlüsselprinzipien für effektives Datenmanagement:_x000D_
+_x000D_
+1. Beständigkeit: Behalten Sie dieselbe Kennung bei, solange die Kernattribute des Raums unverändert bleiben:_x000D_
+   - Position (nicht in einen anderen Teil des Gebäudes verlegt)_x000D_
+   - Allgemeine Größe (geringfügige Anpassungen sind akzeptabel)_x000D_
+   - Primäre Funktion (z.B. bleibt ein Büro oder Besprechungsraum)_x000D_
+_x000D_
+2. Keine Wiederverwendung: Alte Kennungen ausmustern, statt sie neuen Räumen zuzuweisen:_x000D_
+   - Verhindert Verwirrung bei historischen Datenanalysen_x000D_
+   - Vermeidet potenzielle Fehler in Facility-Management-Systemen_x000D_
+_x000D_
+3. Konsistenz: Kennungen systematisch in allen Gebäudedokumentationen und -systemen anwenden:_x000D_
+   - Grundrisse_x000D_
+   - Gebäudeinformationsmodelle (BIM)_x000D_
+   - Facility-Management-Software_x000D_
+   - Wartungsaufzeichnungen_x000D_
+_x000D_
+4. Formatstandardisierung: Ein einheitliches Format für alle Kennungen verwenden:_x000D_
+   - Z.B. dreistellige Zahlen mit vorangestelltem # (#001, #002, usw.)_x000D_
+   - Für größere Komplexe Gebäude- oder Etagenpräfixe in Betracht ziehen (B1-#007, B2-#007)_x000D_
+_x000D_
+5. Änderungsmanagement: Einen formalen Prozess für notwendige Kennungsänderungen implementieren:_x000D_
+   - Gründe für Änderungen dokumentieren_x000D_
+   - Alle relevanten Systeme und Dokumentationen aktualisieren_x000D_
+   - Änderungsprotokoll für zukünftige Referenzen führen_x000D_
+_x000D_
+6. Kundengetriebenen Änderungen widerstehen: Wenn Kunden während der Projektdurchführung Änderungen der Raumnummerierung wünschen:_x000D_
+   - Erklären Sie, dass die aktuellen Kennungen technische Raumnummern sind, die für die Datenintegrität entscheidend sind_x000D_
+   - Bieten Sie an, ein separates, nicht-technisches Raumnummernattribut hinzuzufügen, um ihre Präferenz zu berücksichtigen_x000D_
+   - Betonen Sie die Wichtigkeit der Beibehaltung der ursprünglichen Kennungen für die Systemkonsistenz und zukünftige Betriebsabläufe_x000D_
+_x000D_
 Merke: Auch wenn es verlockend erscheinen mag, Kennungen neu zu organisieren oder wiederzuverwenden, ist die Aufrechterhaltung der Konsistenz über die Zeit entscheidend für ein zuverlässiges langfristiges Datenmanagement und Analysen im Gebäudebetrieb. Technische Raumnummern sollten stabil bleiben, selbst wenn zusätzliche Beschriftungsschemata für den Kundengebrauch eingeführt werden.</t>
   </si>
   <si>
-    <t>Definition: Eine Typbezeichnung für den Raum, z.B. Büro, Besprechungsraum, Labor, Lager.
-Beste Praktiken:
-1. Verwenden Sie klare, beschreibende Namen (z.B. "Großraumbüro" statt nur "Büro")
-2. Erstellen Sie eine standardisierte Liste von Raumtypen für Ihre Organisation
-3. Vermeiden Sie Abkürzungen oder Codes, die für einige Benutzer unklar sein könnten
-4. Erwägen Sie die Einbeziehung von Untertypen für eine detailliertere Klassifizierung (z.B. "Besprechungsraum - Groß")
-5. Überprüfen und aktualisieren Sie die Benennungskonventionen regelmäßig, um sicherzustellen, dass sie den sich entwickelnden Anforderungen entsprechen
+    <t>Definition: Eine Typbezeichnung für den Raum, z.B. Büro, Besprechungsraum, Labor, Lager._x000D_
+_x000D_
+Beste Praktiken:_x000D_
+1. Verwenden Sie klare, beschreibende Namen (z.B. "Großraumbüro" statt nur "Büro")_x000D_
+2. Erstellen Sie eine standardisierte Liste von Raumtypen für Ihre Organisation_x000D_
+3. Vermeiden Sie Abkürzungen oder Codes, die für einige Benutzer unklar sein könnten_x000D_
+4. Erwägen Sie die Einbeziehung von Untertypen für eine detailliertere Klassifizierung (z.B. "Besprechungsraum - Groß")_x000D_
+5. Überprüfen und aktualisieren Sie die Benennungskonventionen regelmäßig, um sicherzustellen, dass sie den sich entwickelnden Anforderungen entsprechen_x000D_
+_x000D_
 Merke: Konsistente und durchdachte Raumtyp-Benennung ist grundlegend für ein effektives Gebäudeinformationsmanagement. Sie unterstützt verbesserte Entscheidungsfindung, Effizienz und langfristige Datennutzbarkeit in verschiedenen Bereichen des Facility Managements, der Energiemodellierung, der Raumnutzung und der Einhaltung von Vorschriften.</t>
   </si>
   <si>
-    <t xml:space="preserve">Empfehlung:
-- Benenne sie einheitlich für einfache Filterung. z.B. Luftraum
+    <t xml:space="preserve">Empfehlung:_x000D_
+- Benenne sie einheitlich für einfache Filterung. z.B. Luftraum_x000D_
 </t>
   </si>
   <si>
-    <t>Das Attribut definiert die Raumlage:
-- True: Außen (z.B. Balkon)
+    <t>Das Attribut definiert die Raumlage:_x000D_
+- True: Außen (z.B. Balkon)_x000D_
 - False: Innen (z.B. Küche, Parkgarage)</t>
   </si>
   <si>
@@ -423,24 +443,26 @@
     <t>Setzen Sie den vordefinierten Typ auf GFA (Brutto-Grundfläche).</t>
   </si>
   <si>
-    <t>Empfehlung:
-- Fenstertyp über PredefinedType spezifizieren
-Übersetzungen:
-- DOOR ... Tür 
-- GATE ... Tor 
-- TRAPDOOR ... Klappe
-- USERDEFINED ... Benutzerdefiniert
-- NOTDEFINED ... Nicht definiert
+    <t>Empfehlung:_x000D_
+- Fenstertyp über PredefinedType spezifizieren_x000D_
+_x000D_
+Übersetzungen:_x000D_
+- DOOR ... Tür _x000D_
+- GATE ... Tor _x000D_
+- TRAPDOOR ... Klappe_x000D_
+- USERDEFINED ... Benutzerdefiniert_x000D_
+- NOTDEFINED ... Nicht definiert_x000D_
+_x000D_
 Wenn Userdefined gewählt wurde, sollte im Attribut ObjectType spezifiziert werden.</t>
   </si>
   <si>
-    <t xml:space="preserve">Empfehlung:
-- Fenstertyp über PredefinedType spezifizieren
+    <t xml:space="preserve">Empfehlung:_x000D_
+- Fenstertyp über PredefinedType spezifizieren_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Empfehlung:
-- Türtyp über PredefinedType spezifizieren
+    <t xml:space="preserve">Empfehlung:_x000D_
+- Türtyp über PredefinedType spezifizieren_x000D_
 </t>
   </si>
   <si>
@@ -603,78 +625,90 @@
     <t>IfcWindow</t>
   </si>
   <si>
-    <t>IfcProject is the main container for a digital building project. It stores essential project information like: &lt;br&gt;
-- Project name and description&lt;br&gt;
-- Measurement units&lt;br&gt;
-- Location details&lt;br&gt;
-- Project stages&lt;br&gt;
-- Basic project-wide settings&lt;br&gt;
-&lt;br&gt;
+    <t>IfcProject is the main container for a digital building project. It stores essential project information like: &lt;br&gt;_x000D_
+_x000D_
+- Project name and description&lt;br&gt;_x000D_
+- Measurement units&lt;br&gt;_x000D_
+- Location details&lt;br&gt;_x000D_
+- Project stages&lt;br&gt;_x000D_
+- Basic project-wide settings&lt;br&gt;_x000D_
+&lt;br&gt;_x000D_
 It acts as the central point for organizing all building information, helping team members access and understand the project easily.</t>
   </si>
   <si>
     <t>A planning perimeter is represented as a single "IfcSite", even if it consists of multiple legal plots.</t>
   </si>
   <si>
-    <t>Recommendation: 
-- Create a separate Building Storey for the foundation.
+    <t>Recommendation: _x000D_
+- Create a separate Building Storey for the foundation._x000D_
 - Coordinate and harmonize the names of the floors early in the process.</t>
   </si>
   <si>
-    <t xml:space="preserve">Model each usable space as one volume per story without any overlaps:
-- Ideal: From structural slab top to next structural slab bottom
-- Alternative: From usable floor top to structural slab bottom
-- Horizontal extent: From interior wall to interior wall, to capture the entire usable volume
+    <t xml:space="preserve">Model each usable space as one volume per story without any overlaps:_x000D_
+_x000D_
+- Ideal: From structural slab top to next structural slab bottom_x000D_
+_x000D_
+- Alternative: From usable floor top to structural slab bottom_x000D_
+_x000D_
+- Horizontal extent: From interior wall to interior wall, to capture the entire usable volume_x000D_
+_x000D_
 - Fill every "Void" in the building. e.g. Shafts, Elevators, </t>
   </si>
   <si>
-    <t>Model "Void" above usable space:
-- One volume per story
+    <t>Model "Void" above usable space:_x000D_
+- One volume per story_x000D_
 - Ensure contact with space below/above</t>
   </si>
   <si>
-    <t>Modeling of Floor Volumes:
-- Model the volume floor by floor as IfcSpace.
-- The outer edge of the floor volume lies on the outer edge of the facade.
-- Lowest floor: from bottom edge of foundation to top edge of structural ceiling of first floor
-- Standard floors: from top edge of rough ceiling to top edge of structural ceiling of the next floor or roof skin
+    <t>Modeling of Floor Volumes:_x000D_
+_x000D_
+- Model the volume floor by floor as IfcSpace._x000D_
+- The outer edge of the floor volume lies on the outer edge of the facade._x000D_
+- Lowest floor: from bottom edge of foundation to top edge of structural ceiling of first floor_x000D_
+- Standard floors: from top edge of rough ceiling to top edge of structural ceiling of the next floor or roof skin_x000D_
 - Attics, canopies, and cantilevered slabs are measured over.</t>
   </si>
   <si>
-    <t>IfcProject ist der Hauptcontainer für ein digitales Bauprojekt. Es speichert wesentliche Projektinformationen wie:&lt;br&gt;
-- Projektname und -beschreibung&lt;br&gt;
-- Masseinheiten&lt;br&gt;
-- Standortdetails&lt;br&gt;
-- Projektphasen&lt;br&gt;
-- Grundlegende projektweite  Einstellungen&lt;br&gt;
-&lt;br&gt;
+    <t>IfcProject ist der Hauptcontainer für ein digitales Bauprojekt. Es speichert wesentliche Projektinformationen wie:&lt;br&gt;_x000D_
+_x000D_
+- Projektname und -beschreibung&lt;br&gt;_x000D_
+- Masseinheiten&lt;br&gt;_x000D_
+- Standortdetails&lt;br&gt;_x000D_
+- Projektphasen&lt;br&gt;_x000D_
+- Grundlegende projektweite  Einstellungen&lt;br&gt;_x000D_
+&lt;br&gt;_x000D_
 Es dient als zentraler Punkt für die Organisation aller Bauinformationen und hilft Teammitgliedern, das Projekt leicht zu verstehen und darauf zuzugreifen.</t>
   </si>
   <si>
     <t>Ein Planungsperimeter wird als eine "IfcSite" dargestellt, auch wenn er aus mehreren baurechtlichen Grundstücken besteht.</t>
   </si>
   <si>
-    <t>Empfehlung:
-- Erstellen Sie ein separates Geschoss (Building Storey) für das Fundament.
+    <t>Empfehlung:_x000D_
+- Erstellen Sie ein separates Geschoss (Building Storey) für das Fundament._x000D_
 - Koordinieren und harmonisieren Sie die Bezeichnungen der Geschosse frühzeitig im Prozess.</t>
   </si>
   <si>
-    <t>Modellieren Sie jeden nutzbaren Raum als ein Volumen pro Geschoss ohne Überschneidungen:
-Optimal: Von Oberkante Rohdecke bis Unterkante der nächsten Rohdecke
-Alternative: Von Oberkante Nutzfläche bis Unterkante Rohdecke
+    <t>Modellieren Sie jeden nutzbaren Raum als ein Volumen pro Geschoss ohne Überschneidungen:_x000D_
+_x000D_
+Optimal: Von Oberkante Rohdecke bis Unterkante der nächsten Rohdecke_x000D_
+_x000D_
+Alternative: Von Oberkante Nutzfläche bis Unterkante Rohdecke_x000D_
+_x000D_
 Horizontale Ausdehnung: Von Innenwand zu Innenwand, um das gesamte nutzbare Volumen zu erfassen</t>
   </si>
   <si>
-    <t>Modellieren Sie den "Void" über dem nutzbaren Raum:
-1. Ein Volumen pro Geschoss
+    <t>Modellieren Sie den "Void" über dem nutzbaren Raum:_x000D_
+_x000D_
+1. Ein Volumen pro Geschoss_x000D_
 2. Stellen Sie Kontakt zum Raum darunter/darüber sicher</t>
   </si>
   <si>
-    <t>Modellierung von Geschoss Volumen:
-- Modellieren Sie das Volumen geschossweise als IfcSpace.
-- Die Aussenkante des Geschossvolumens liegt auf der Aussenkante der Fassade.
-- Unterstes Geschoss von  Unterkante Fundament bis Oberkante Rohdecke erstes Geschoss
-- Regelgeschosse von  Oberkante Rohdecke bis Oberkante Rohdecke des nächsten Geschosses oder Dachhaut
+    <t>Modellierung von Geschoss Volumen:_x000D_
+_x000D_
+- Modellieren Sie das Volumen geschossweise als IfcSpace._x000D_
+- Die Aussenkante des Geschossvolumens liegt auf der Aussenkante der Fassade._x000D_
+- Unterstes Geschoss von  Unterkante Fundament bis Oberkante Rohdecke erstes Geschoss_x000D_
+- Regelgeschosse von  Oberkante Rohdecke bis Oberkante Rohdecke des nächsten Geschosses oder Dachhaut_x000D_
 - Attika, Vordächer und auskragende Platten werden übermessen.</t>
   </si>
   <si>
@@ -720,6 +754,15 @@
 Hinweis: Während das Modell primär Bruttoflächen behandelt, können diese bei Bedarf weiter in spezifische Bereiche und Zonen unterteilt werden (z.B. einzelne Wohnungen, Bereiche für unterschiedliche Nutzungen). Diese Unterteilung ermöglicht ein detaillierteres Raummanagement, während die Gesamtstruktur des Geschossvolumenmodells beibehalten wird.</t>
   </si>
   <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>ARC_Volumes</t>
+  </si>
+  <si>
+    <t>ARC_Volumen</t>
+  </si>
+  <si>
     <t>Room Data Manager</t>
   </si>
   <si>
@@ -732,34 +775,34 @@
     <t>Simplify and normalize models for Building Performance Simulations and Cost Calculations</t>
   </si>
   <si>
-    <t>**The challenge:**&lt;br&gt;
-            Room information is often managed:
-            - Within the software of individual trades (architect, HVAC, etc.), leading to inconsistencies and redundant data entries.
-            - In Excel files that are difficult to verify.
-            - In expensive room book solutions that are overkill for smaller and less complex projects.
-            &lt;br&gt;
-            **The solution:**&lt;br&gt;
-            1. Set up a collaborative workflow with a shared Excel file. This can be done using platforms like Trimble Connect, Teams, or any other solution that allowrequirementss parallel access to a file. You'll get the detailed Workflow requirments on the next page.
-            2. Upload an IFC Model with at least the IfcSpaces. The link between Excel and the model is made through either the Name or LongName attribute. This means: &lt;br&gt; In both Excel and IFC, the same value needs to be found in one of these two columns (usually "Name" for the unique room number and "LongName" for the descriptive type name).
-            3. View the enriched data in 2D or 3D, check the data, and export the graphs for reports (save as pictures).
-            4. Download the enriched IFC for documentation, handover, or in-depth analysis.
+    <t>**The challenge:**&lt;br&gt;_x000D_
+            Room information is often managed:_x000D_
+            - Within the software of individual trades (architect, HVAC, etc.), leading to inconsistencies and redundant data entries._x000D_
+            - In Excel files that are difficult to verify._x000D_
+            - In expensive room book solutions that are overkill for smaller and less complex projects._x000D_
+            &lt;br&gt;_x000D_
+            **The solution:**&lt;br&gt;_x000D_
+            1. Set up a collaborative workflow with a shared Excel file. This can be done using platforms like Trimble Connect, Teams, or any other solution that allowrequirementss parallel access to a file. You'll get the detailed Workflow requirments on the next page._x000D_
+            2. Upload an IFC Model with at least the IfcSpaces. The link between Excel and the model is made through either the Name or LongName attribute. This means: &lt;br&gt; In both Excel and IFC, the same value needs to be found in one of these two columns (usually "Name" for the unique room number and "LongName" for the descriptive type name)._x000D_
+            3. View the enriched data in 2D or 3D, check the data, and export the graphs for reports (save as pictures)._x000D_
+            4. Download the enriched IFC for documentation, handover, or in-depth analysis._x000D_
             Need support or adaptation? Contact Simon Dilhas at simon.dilhas@abstract.build</t>
   </si>
   <si>
-    <t>**The challenge:**&lt;br&gt;
-Simulation models demand structure and simplicity, while architectural designs favor rapid iteration. Early-stage simulations and calculations have the greatest impact. Minimal input requires a valid IFC with IfcSpaces; Windows and Doors will be abstracted if present.
-&lt;br&gt;
-**The solution:**&lt;br&gt;
-1. Establish and communicate minimal model requirements early.
-2. Upload and verify model integrity:
-   - Confirm inclusion of all Spaces
-   - Validate External Property settings and Room Names
-   - (Optional: check Windows and Doors)
-   - Apply corrections as needed (in-app or preferred system)
-3. Abstract the model:
-   - Utilize abstractBIM.com (temporary solution)
-   - Export as IFC, Excel, or gbXML
-   - (Automation planned in future Pragmatic Workflows update)
+    <t>**The challenge:**&lt;br&gt;_x000D_
+Simulation models demand structure and simplicity, while architectural designs favor rapid iteration. Early-stage simulations and calculations have the greatest impact. Minimal input requires a valid IFC with IfcSpaces; Windows and Doors will be abstracted if present._x000D_
+&lt;br&gt;_x000D_
+**The solution:**&lt;br&gt;_x000D_
+1. Establish and communicate minimal model requirements early._x000D_
+2. Upload and verify model integrity:_x000D_
+   - Confirm inclusion of all Spaces_x000D_
+   - Validate External Property settings and Room Names_x000D_
+   - (Optional: check Windows and Doors)_x000D_
+   - Apply corrections as needed (in-app or preferred system)_x000D_
+3. Abstract the model:_x000D_
+   - Utilize abstractBIM.com (temporary solution)_x000D_
+   - Export as IFC, Excel, or gbXML_x000D_
+   - (Automation planned in future Pragmatic Workflows update)_x000D_
 4. Implement abstracted model in workflows</t>
   </si>
   <si>
@@ -1412,23 +1455,35 @@
       <c r="AW2" t="s">
         <v>181</v>
       </c>
+      <c r="AZ2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>183</v>
+      </c>
       <c r="BD2" t="s">
         <v>140</v>
       </c>
       <c r="BE2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:69">
@@ -1504,23 +1559,35 @@
       <c r="AW3" t="s">
         <v>182</v>
       </c>
+      <c r="AZ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>185</v>
+      </c>
       <c r="BD3" t="s">
         <v>141</v>
       </c>
       <c r="BE3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:69">
@@ -1602,23 +1669,35 @@
       <c r="AW4" t="s">
         <v>181</v>
       </c>
+      <c r="AZ4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>183</v>
+      </c>
       <c r="BD4" t="s">
         <v>140</v>
       </c>
       <c r="BE4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:69">
@@ -1700,23 +1779,35 @@
       <c r="AW5" t="s">
         <v>182</v>
       </c>
+      <c r="AZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>185</v>
+      </c>
       <c r="BD5" t="s">
         <v>141</v>
       </c>
       <c r="BE5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:69">
@@ -1792,23 +1883,35 @@
       <c r="AW6" t="s">
         <v>181</v>
       </c>
+      <c r="AZ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>183</v>
+      </c>
       <c r="BD6" t="s">
         <v>140</v>
       </c>
       <c r="BE6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:69">
@@ -1884,23 +1987,35 @@
       <c r="AW7" t="s">
         <v>182</v>
       </c>
+      <c r="AZ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>185</v>
+      </c>
       <c r="BD7" t="s">
         <v>141</v>
       </c>
       <c r="BE7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:69">
@@ -1982,23 +2097,35 @@
       <c r="AW8" t="s">
         <v>181</v>
       </c>
+      <c r="AZ8" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>183</v>
+      </c>
       <c r="BD8" t="s">
         <v>140</v>
       </c>
       <c r="BE8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:69">
@@ -2080,23 +2207,35 @@
       <c r="AW9" t="s">
         <v>182</v>
       </c>
+      <c r="AZ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>185</v>
+      </c>
       <c r="BD9" t="s">
         <v>141</v>
       </c>
       <c r="BE9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:69">
@@ -2178,23 +2317,35 @@
       <c r="AW10" t="s">
         <v>181</v>
       </c>
+      <c r="AZ10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>183</v>
+      </c>
       <c r="BD10" t="s">
         <v>140</v>
       </c>
       <c r="BE10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:69">
@@ -2276,23 +2427,35 @@
       <c r="AW11" t="s">
         <v>181</v>
       </c>
+      <c r="AZ11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>183</v>
+      </c>
       <c r="BD11" t="s">
         <v>140</v>
       </c>
       <c r="BE11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:69">
@@ -2398,23 +2561,35 @@
       <c r="AW12" t="s">
         <v>181</v>
       </c>
+      <c r="AZ12" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>183</v>
+      </c>
       <c r="BD12" t="s">
         <v>140</v>
       </c>
       <c r="BE12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:69">
@@ -2508,23 +2683,35 @@
       <c r="AW13" t="s">
         <v>181</v>
       </c>
+      <c r="AZ13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>183</v>
+      </c>
       <c r="BD13" t="s">
         <v>140</v>
       </c>
       <c r="BE13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:69">
@@ -2615,23 +2802,35 @@
       <c r="AW14" t="s">
         <v>181</v>
       </c>
+      <c r="AZ14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>183</v>
+      </c>
       <c r="BD14" t="s">
         <v>140</v>
       </c>
       <c r="BE14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:69">
@@ -2725,23 +2924,35 @@
       <c r="AW15" t="s">
         <v>182</v>
       </c>
+      <c r="AZ15" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>185</v>
+      </c>
       <c r="BD15" t="s">
         <v>141</v>
       </c>
       <c r="BE15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:69">
@@ -2832,23 +3043,35 @@
       <c r="AW16" t="s">
         <v>181</v>
       </c>
+      <c r="AZ16" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>183</v>
+      </c>
       <c r="BD16" t="s">
         <v>140</v>
       </c>
       <c r="BE16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BM16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BN16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BQ16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:69">
@@ -2933,23 +3156,35 @@
       <c r="AW17" t="s">
         <v>181</v>
       </c>
+      <c r="AZ17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>183</v>
+      </c>
       <c r="BD17" t="s">
         <v>140</v>
       </c>
       <c r="BE17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BI17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BM17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BN17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BQ17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:69">
@@ -3022,23 +3257,35 @@
       <c r="AW18" t="s">
         <v>181</v>
       </c>
+      <c r="AZ18" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>183</v>
+      </c>
       <c r="BD18" t="s">
         <v>140</v>
       </c>
       <c r="BE18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BI18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BM18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BN18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BQ18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:69">
@@ -3108,23 +3355,35 @@
       <c r="AW19" t="s">
         <v>181</v>
       </c>
+      <c r="AZ19" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>183</v>
+      </c>
       <c r="BD19" t="s">
         <v>140</v>
       </c>
       <c r="BE19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BI19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BM19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BN19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BQ19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:69">
@@ -3194,23 +3453,35 @@
       <c r="AW20" t="s">
         <v>181</v>
       </c>
+      <c r="AZ20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>183</v>
+      </c>
       <c r="BD20" t="s">
         <v>140</v>
       </c>
       <c r="BE20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BI20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BM20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BN20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BQ20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/SampleV.01/Elementplan_SampleV.01_raw_data.xlsx
+++ b/data/SampleV.01/Elementplan_SampleV.01_raw_data.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="194">
   <si>
-    <t>AttributID</t>
-  </si>
-  <si>
-    <t>AttributName</t>
-  </si>
-  <si>
-    <t>SortAttribut</t>
-  </si>
-  <si>
-    <t>AttributDescriptionEN</t>
-  </si>
-  <si>
-    <t>AttributDescriptionDE</t>
-  </si>
-  <si>
-    <t>AttributDescriptionFR</t>
-  </si>
-  <si>
-    <t>AttributDescriptionIT</t>
+    <t>AttributeID</t>
+  </si>
+  <si>
+    <t>AttributeName</t>
+  </si>
+  <si>
+    <t>SortAttribute</t>
+  </si>
+  <si>
+    <t>AttributeDescriptionEN</t>
+  </si>
+  <si>
+    <t>AttributeDescriptionDE</t>
+  </si>
+  <si>
+    <t>AttributeDescriptionFR</t>
+  </si>
+  <si>
+    <t>AttributeDescriptionIT</t>
   </si>
   <si>
     <t>Pset</t>
@@ -223,267 +223,245 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Name_Building</t>
+  </si>
+  <si>
     <t>Name_Project</t>
   </si>
   <si>
+    <t>Name_Useable Space</t>
+  </si>
+  <si>
     <t>Name_Planning Perimeter</t>
   </si>
   <si>
-    <t>Name_Building</t>
-  </si>
-  <si>
     <t>Name_Storey / Floor</t>
   </si>
   <si>
-    <t>Name_Useable Space</t>
-  </si>
-  <si>
     <t>LongName_Useable Space</t>
   </si>
   <si>
     <t>LongName_Void in double height rooms</t>
   </si>
   <si>
+    <t>PredefinedType_Useable Space</t>
+  </si>
+  <si>
+    <t>PredefinedType_Doors</t>
+  </si>
+  <si>
+    <t>PredefinedType_Gross Floor Volume</t>
+  </si>
+  <si>
+    <t>IsInteriorOrExteriorSpace_Useable Space</t>
+  </si>
+  <si>
+    <t>PredefinedType_Window</t>
+  </si>
+  <si>
     <t>IsExternal_Useable Space</t>
   </si>
   <si>
-    <t>PredefinedType_Useable Space</t>
-  </si>
-  <si>
-    <t>PredefinedType_Gross Floor Volume</t>
-  </si>
-  <si>
-    <t>IsInteriorOrExteriorSpace_Useable Space</t>
-  </si>
-  <si>
-    <t>PredefinedType_Doors</t>
-  </si>
-  <si>
-    <t>PredefinedType_Window</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>LongName</t>
   </si>
   <si>
+    <t>PredefinedType</t>
+  </si>
+  <si>
+    <t>IsInteriorOrExteriorSpace</t>
+  </si>
+  <si>
     <t>IsExternal</t>
   </si>
   <si>
-    <t>PredefinedType</t>
-  </si>
-  <si>
-    <t>IsInteriorOrExteriorSpace</t>
+    <t>Name of the Building</t>
   </si>
   <si>
     <t>Project Name or Number</t>
   </si>
   <si>
+    <t>Recommendation: \n
+- Room Identifier: Persistent Unique Numerical Designation \n
+- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 \n
+\n
+Key Principles for Effective Data Management:
+1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: \n
+   - Position (not relocated to a different part of the building)\n
+   - General size (minor adjustments are acceptable)\n
+   - Primary function (e.g., remains an office or meeting room)
+2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:
+   - Prevents confusion in historical data analysis
+   - Avoids potential errors in facility management systems
+3. Consistency: Apply identifiers systematically across all building documentation and systems:
+   - Floor plans
+   - Building Information Models (BIM)
+   - Facility management software
+   - Maintenance records
+4. Format Standardization: Adopt a consistent format for all identifiers:
+   - E.g., three-digit numbers preceded by # (#001, #002, etc.)
+   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)
+5. Change Management: Implement a formal process for identifier changes when necessary:
+   - Document reasons for changes
+   - Update all relevant systems and documentation
+   - Maintain a change log for future reference
+6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:
+   - Explain that the current identifiers are technical room numbers crucial for data integrity
+   - Offer to add a separate, non-technical room number attribute to accommodate their preference
+   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations
+Remember: While it may seem tempting to reorganize or reuse identifiers, maintaining consistency over time is crucial for reliable long-term data management and analysis in facility operations. Technical room numbers should remain stable, even if additional labeling schemes are introduced for client use.</t>
+  </si>
+  <si>
     <t>Name of the Perimeter</t>
   </si>
   <si>
-    <t>Name of the Building</t>
-  </si>
-  <si>
     <t>Unique floor designation</t>
   </si>
   <si>
-    <t>Recommendation: &lt;br&gt;_x000D_
-- Room Identifier: Persistent Unique Numerical Designation &lt;br&gt;_x000D_
-- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 &lt;br&gt;_x000D_
-&lt;br&gt;_x000D_
-Key Principles for Effective Data Management:_x000D_
-_x000D_
-1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: &lt;br&gt;_x000D_
-   - Position (not relocated to a different part of the building)_x000D_
-   - General size (minor adjustments are acceptable)_x000D_
-   - Primary function (e.g., remains an office or meeting room)_x000D_
-_x000D_
-2. Non-reuse: Retire old identifiers rather than reassigning them to new spaces:_x000D_
-   - Prevents confusion in historical data analysis_x000D_
-   - Avoids potential errors in facility management systems_x000D_
-_x000D_
-3. Consistency: Apply identifiers systematically across all building documentation and systems:_x000D_
-   - Floor plans_x000D_
-   - Building Information Models (BIM)_x000D_
-   - Facility management software_x000D_
-   - Maintenance records_x000D_
-_x000D_
-4. Format Standardization: Adopt a consistent format for all identifiers:_x000D_
-   - E.g., three-digit numbers preceded by # (#001, #002, etc.)_x000D_
-   - Consider building or floor prefixes for larger complexes (B1-#007, B2-#007)_x000D_
-_x000D_
-5. Change Management: Implement a formal process for identifier changes when necessary:_x000D_
-   - Document reasons for changes_x000D_
-   - Update all relevant systems and documentation_x000D_
-   - Maintain a change log for future reference_x000D_
-_x000D_
-6. Resist Client-Driven Changes: If clients request room numbering changes during project execution:_x000D_
-   - Explain that the current identifiers are technical room numbers crucial for data integrity_x000D_
-   - Offer to add a separate, non-technical room number attribute to accommodate their preference_x000D_
-   - Emphasize the importance of maintaining the original identifiers for system consistency and future operations_x000D_
-_x000D_
-Remember: While it may seem tempting to reorganize or reuse identifiers, maintaining consistency over time is crucial for reliable long-term data management and analysis in facility operations. Technical room numbers should remain stable, even if additional labeling schemes are introduced for client use.</t>
-  </si>
-  <si>
-    <t>Room Type Naming: A Key Element in Building Information Management_x000D_
-_x000D_
-Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage._x000D_
-_x000D_
-Best Practices:_x000D_
-1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")_x000D_
-2. Establish a standardized list of room types for your organization_x000D_
-3. Avoid abbreviations or codes that may be unclear to some users_x000D_
-4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")_x000D_
-5. Regularly review and update naming conventions to ensure they meet evolving needs_x000D_
-_x000D_
+    <t>Room Type Naming: A Key Element in Building Information Management
+Definition: A type name for the room, e.g., Office, Meeting Room, Laboratory, Storage.
+Best Practices:
+1. Use clear, descriptive names (e.g., "Open Plan Office" instead of just "Office")
+2. Establish a standardized list of room types for your organization
+3. Avoid abbreviations or codes that may be unclear to some users
+4. Consider including subtypes for more detailed classification (e.g., "Meeting Room - Large")
+5. Regularly review and update naming conventions to ensure they meet evolving needs
 Remember: Consistent and thoughtful room type naming is foundational for effective building information management. It supports improved decision-making, efficiency, and long-term data usability across various aspects of facility management, energy modeling, space utilization, and regulatory compliance.</t>
   </si>
   <si>
-    <t>Recommendation:_x000D_
+    <t>Recommendation:
 - Name them consistently for simple filtering. E.g. Void</t>
   </si>
   <si>
-    <t>The attribute defines space location:_x000D_
-_x000D_
-True: Outside (e.g., balcony)_x000D_
+    <t>In the Attribute, you can define if it's an EXTERNAL or INTERNAL Space.</t>
+  </si>
+  <si>
+    <t>Recommendation:
+- Specify window type via PredefinedType</t>
+  </si>
+  <si>
+    <t>Set the Predefined Type to GFA (Gross Floor Area).</t>
+  </si>
+  <si>
+    <t>Recommendation:
+- Specify door type via PredefinedType</t>
+  </si>
+  <si>
+    <t>The attribute defines space location:
+True: Outside (e.g., balcony)
 False: Inside (e.g., kitchen, parking garage)</t>
   </si>
   <si>
-    <t>In the Attribute, you can define if it's an EXTERNAL or INTERNAL Space.</t>
-  </si>
-  <si>
-    <t>Set the Predefined Type to GFA (Gross Floor Area).</t>
-  </si>
-  <si>
-    <t>Recommendation:_x000D_
-- Specify window type via PredefinedType</t>
-  </si>
-  <si>
-    <t>Recommendation:_x000D_
-- Specify door type via PredefinedType</t>
+    <t>Gebäudebezeichnung</t>
   </si>
   <si>
     <t>Projektname oder Nummer</t>
   </si>
   <si>
+    <t>Empfehlung:\n
+- Raumkennung: Persistente eindeutige numerische Bezeichnung \n
+- Definition: Ein eindeutiger, dauerhafter numerischer Code, der jedem Raum zur unmissverständlichen Identifizierung innerhalb eines Gebäudes oder Komplexes zugewiesen wird. Z.B. #007 \n
+\n
+Schlüsselprinzipien für effektives Datenmanagement:
+1. Beständigkeit: Behalten Sie dieselbe Kennung bei, solange die Kernattribute des Raums unverändert bleiben:
+   - Position (nicht in einen anderen Teil des Gebäudes verlegt)
+   - Allgemeine Größe (geringfügige Anpassungen sind akzeptabel)
+   - Primäre Funktion (z.B. bleibt ein Büro oder Besprechungsraum)
+2. Keine Wiederverwendung: Alte Kennungen ausmustern, statt sie neuen Räumen zuzuweisen:
+   - Verhindert Verwirrung bei historischen Datenanalysen
+   - Vermeidet potenzielle Fehler in Facility-Management-Systemen
+3. Konsistenz: Kennungen systematisch in allen Gebäudedokumentationen und -systemen anwenden:
+   - Grundrisse
+   - Gebäudeinformationsmodelle (BIM)
+   - Facility-Management-Software
+   - Wartungsaufzeichnungen
+4. Formatstandardisierung: Ein einheitliches Format für alle Kennungen verwenden:
+   - Z.B. dreistellige Zahlen mit vorangestelltem # (#001, #002, usw.)
+   - Für größere Komplexe Gebäude- oder Etagenpräfixe in Betracht ziehen (B1-#007, B2-#007)
+5. Änderungsmanagement: Einen formalen Prozess für notwendige Kennungsänderungen implementieren:
+   - Gründe für Änderungen dokumentieren
+   - Alle relevanten Systeme und Dokumentationen aktualisieren
+   - Änderungsprotokoll für zukünftige Referenzen führen
+6. Kundengetriebenen Änderungen widerstehen: Wenn Kunden während der Projektdurchführung Änderungen der Raumnummerierung wünschen:
+   - Erklären Sie, dass die aktuellen Kennungen technische Raumnummern sind, die für die Datenintegrität entscheidend sind
+   - Bieten Sie an, ein separates, nicht-technisches Raumnummernattribut hinzuzufügen, um ihre Präferenz zu berücksichtigen
+   - Betonen Sie die Wichtigkeit der Beibehaltung der ursprünglichen Kennungen für die Systemkonsistenz und zukünftige Betriebsabläufe
+Merke: Auch wenn es verlockend erscheinen mag, Kennungen neu zu organisieren oder wiederzuverwenden, ist die Aufrechterhaltung der Konsistenz über die Zeit entscheidend für ein zuverlässiges langfristiges Datenmanagement und Analysen im Gebäudebetrieb. Technische Raumnummern sollten stabil bleiben, selbst wenn zusätzliche Beschriftungsschemata für den Kundengebrauch eingeführt werden.</t>
+  </si>
+  <si>
     <t>Planungsperimeterbezeichnung</t>
   </si>
   <si>
-    <t>Gebäudebezeichnung</t>
-  </si>
-  <si>
     <t>Eindeutige Geschossbezeichnung</t>
   </si>
   <si>
-    <t>Empfehlung:\n_x000D_
-- Raumkennung: Persistente eindeutige numerische Bezeichnung \n_x000D_
-- Definition: Ein eindeutiger, dauerhafter numerischer Code, der jedem Raum zur unmissverständlichen Identifizierung innerhalb eines Gebäudes oder Komplexes zugewiesen wird. Z.B. #007 \n_x000D_
-\n_x000D_
-Schlüsselprinzipien für effektives Datenmanagement:_x000D_
-_x000D_
-1. Beständigkeit: Behalten Sie dieselbe Kennung bei, solange die Kernattribute des Raums unverändert bleiben:_x000D_
-   - Position (nicht in einen anderen Teil des Gebäudes verlegt)_x000D_
-   - Allgemeine Größe (geringfügige Anpassungen sind akzeptabel)_x000D_
-   - Primäre Funktion (z.B. bleibt ein Büro oder Besprechungsraum)_x000D_
-_x000D_
-2. Keine Wiederverwendung: Alte Kennungen ausmustern, statt sie neuen Räumen zuzuweisen:_x000D_
-   - Verhindert Verwirrung bei historischen Datenanalysen_x000D_
-   - Vermeidet potenzielle Fehler in Facility-Management-Systemen_x000D_
-_x000D_
-3. Konsistenz: Kennungen systematisch in allen Gebäudedokumentationen und -systemen anwenden:_x000D_
-   - Grundrisse_x000D_
-   - Gebäudeinformationsmodelle (BIM)_x000D_
-   - Facility-Management-Software_x000D_
-   - Wartungsaufzeichnungen_x000D_
-_x000D_
-4. Formatstandardisierung: Ein einheitliches Format für alle Kennungen verwenden:_x000D_
-   - Z.B. dreistellige Zahlen mit vorangestelltem # (#001, #002, usw.)_x000D_
-   - Für größere Komplexe Gebäude- oder Etagenpräfixe in Betracht ziehen (B1-#007, B2-#007)_x000D_
-_x000D_
-5. Änderungsmanagement: Einen formalen Prozess für notwendige Kennungsänderungen implementieren:_x000D_
-   - Gründe für Änderungen dokumentieren_x000D_
-   - Alle relevanten Systeme und Dokumentationen aktualisieren_x000D_
-   - Änderungsprotokoll für zukünftige Referenzen führen_x000D_
-_x000D_
-6. Kundengetriebenen Änderungen widerstehen: Wenn Kunden während der Projektdurchführung Änderungen der Raumnummerierung wünschen:_x000D_
-   - Erklären Sie, dass die aktuellen Kennungen technische Raumnummern sind, die für die Datenintegrität entscheidend sind_x000D_
-   - Bieten Sie an, ein separates, nicht-technisches Raumnummernattribut hinzuzufügen, um ihre Präferenz zu berücksichtigen_x000D_
-   - Betonen Sie die Wichtigkeit der Beibehaltung der ursprünglichen Kennungen für die Systemkonsistenz und zukünftige Betriebsabläufe_x000D_
-_x000D_
-Merke: Auch wenn es verlockend erscheinen mag, Kennungen neu zu organisieren oder wiederzuverwenden, ist die Aufrechterhaltung der Konsistenz über die Zeit entscheidend für ein zuverlässiges langfristiges Datenmanagement und Analysen im Gebäudebetrieb. Technische Raumnummern sollten stabil bleiben, selbst wenn zusätzliche Beschriftungsschemata für den Kundengebrauch eingeführt werden.</t>
-  </si>
-  <si>
-    <t>Definition: Eine Typbezeichnung für den Raum, z.B. Büro, Besprechungsraum, Labor, Lager._x000D_
-_x000D_
-Beste Praktiken:_x000D_
-1. Verwenden Sie klare, beschreibende Namen (z.B. "Großraumbüro" statt nur "Büro")_x000D_
-2. Erstellen Sie eine standardisierte Liste von Raumtypen für Ihre Organisation_x000D_
-3. Vermeiden Sie Abkürzungen oder Codes, die für einige Benutzer unklar sein könnten_x000D_
-4. Erwägen Sie die Einbeziehung von Untertypen für eine detailliertere Klassifizierung (z.B. "Besprechungsraum - Groß")_x000D_
-5. Überprüfen und aktualisieren Sie die Benennungskonventionen regelmäßig, um sicherzustellen, dass sie den sich entwickelnden Anforderungen entsprechen_x000D_
-_x000D_
+    <t>Definition: Eine Typbezeichnung für den Raum, z.B. Büro, Besprechungsraum, Labor, Lager.
+Beste Praktiken:
+1. Verwenden Sie klare, beschreibende Namen (z.B. "Großraumbüro" statt nur "Büro")
+2. Erstellen Sie eine standardisierte Liste von Raumtypen für Ihre Organisation
+3. Vermeiden Sie Abkürzungen oder Codes, die für einige Benutzer unklar sein könnten
+4. Erwägen Sie die Einbeziehung von Untertypen für eine detailliertere Klassifizierung (z.B. "Besprechungsraum - Groß")
+5. Überprüfen und aktualisieren Sie die Benennungskonventionen regelmäßig, um sicherzustellen, dass sie den sich entwickelnden Anforderungen entsprechen
 Merke: Konsistente und durchdachte Raumtyp-Benennung ist grundlegend für ein effektives Gebäudeinformationsmanagement. Sie unterstützt verbesserte Entscheidungsfindung, Effizienz und langfristige Datennutzbarkeit in verschiedenen Bereichen des Facility Managements, der Energiemodellierung, der Raumnutzung und der Einhaltung von Vorschriften.</t>
   </si>
   <si>
-    <t xml:space="preserve">Empfehlung:_x000D_
-- Benenne sie einheitlich für einfache Filterung. z.B. Luftraum_x000D_
+    <t xml:space="preserve">Empfehlung:
+- Benenne sie einheitlich für einfache Filterung. z.B. Luftraum
 </t>
   </si>
   <si>
-    <t>Das Attribut definiert die Raumlage:_x000D_
-- True: Außen (z.B. Balkon)_x000D_
+    <t>Im Attribut können Sie festlegen, ob es sich um einen EXTERNEN oder INTERNEN Raum handelt.</t>
+  </si>
+  <si>
+    <t>Empfehlung:
+- Fenstertyp über PredefinedType spezifizieren
+Übersetzungen:
+- DOOR ... Tür 
+- GATE ... Tor 
+- TRAPDOOR ... Klappe
+- USERDEFINED ... Benutzerdefiniert
+- NOTDEFINED ... Nicht definiert
+Wenn Userdefined gewählt wurde, sollte im Attribut ObjectType spezifiziert werden.</t>
+  </si>
+  <si>
+    <t>Setzen Sie den vordefinierten Typ auf GFA (Brutto-Grundfläche).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empfehlung:
+- Türtyp über PredefinedType spezifizieren
+</t>
+  </si>
+  <si>
+    <t>Das Attribut definiert die Raumlage:
+- True: Außen (z.B. Balkon)
 - False: Innen (z.B. Küche, Parkgarage)</t>
   </si>
   <si>
-    <t>Im Attribut können Sie festlegen, ob es sich um einen EXTERNEN oder INTERNEN Raum handelt.</t>
-  </si>
-  <si>
-    <t>Setzen Sie den vordefinierten Typ auf GFA (Brutto-Grundfläche).</t>
-  </si>
-  <si>
-    <t>Empfehlung:_x000D_
-- Fenstertyp über PredefinedType spezifizieren_x000D_
-_x000D_
-Übersetzungen:_x000D_
-- DOOR ... Tür _x000D_
-- GATE ... Tor _x000D_
-- TRAPDOOR ... Klappe_x000D_
-- USERDEFINED ... Benutzerdefiniert_x000D_
-- NOTDEFINED ... Nicht definiert_x000D_
-_x000D_
-Wenn Userdefined gewählt wurde, sollte im Attribut ObjectType spezifiziert werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empfehlung:_x000D_
-- Fenstertyp über PredefinedType spezifizieren_x000D_
+    <t xml:space="preserve">Empfehlung:
+- Fenstertyp über PredefinedType spezifizieren
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Empfehlung:_x000D_
-- Türtyp über PredefinedType spezifizieren_x000D_
-</t>
-  </si>
-  <si>
     <t>Pset_SpaceCommon</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
+    <t>EXTERNAL, INTERNAL</t>
+  </si>
+  <si>
+    <t>DOOR, GATE, TRAPDOOR, USERDEFINED, NOTDEFINED</t>
+  </si>
+  <si>
+    <t>GFA</t>
+  </si>
+  <si>
     <t>TRUE, FALSE</t>
   </si>
   <si>
-    <t>EXTERNAL, INTERNAL</t>
-  </si>
-  <si>
-    <t>GFA</t>
-  </si>
-  <si>
-    <t>DOOR, GATE, TRAPDOOR, USERDEFINED, NOTDEFINED</t>
-  </si>
-  <si>
     <t>checked</t>
   </si>
   <si>
@@ -511,30 +489,30 @@
     <t>32  Progetto di costruzione, 33  Procedura di approvazione, 41  Gara d'appalto / Confronto delle offerte, Proposta di aggiudicazione, 51  Pianificazione dell'esecuzione, 52  Esecuzione, 53  Messa in funzione / Completamento, 61  Operazione, 62  Manutenzione</t>
   </si>
   <si>
+    <t>Building</t>
+  </si>
+  <si>
     <t>Project</t>
   </si>
   <si>
+    <t>Useable Space</t>
+  </si>
+  <si>
     <t>Planning Perimeter</t>
   </si>
   <si>
-    <t>Building</t>
-  </si>
-  <si>
     <t>Storey / Floor</t>
   </si>
   <si>
-    <t>Useable Space</t>
-  </si>
-  <si>
     <t>Void in double height rooms</t>
   </si>
   <si>
+    <t>Doors</t>
+  </si>
+  <si>
     <t>Gross Floor Volume</t>
   </si>
   <si>
-    <t>Doors</t>
-  </si>
-  <si>
     <t>Window</t>
   </si>
   <si>
@@ -550,73 +528,73 @@
     <t>ABC</t>
   </si>
   <si>
+    <t>3,0</t>
+  </si>
+  <si>
     <t>1,0</t>
   </si>
   <si>
+    <t>5,0</t>
+  </si>
+  <si>
     <t>2,0</t>
   </si>
   <si>
-    <t>3,0</t>
-  </si>
-  <si>
     <t>4,0</t>
   </si>
   <si>
-    <t>5,0</t>
-  </si>
-  <si>
     <t>6,0</t>
   </si>
   <si>
+    <t>9,0</t>
+  </si>
+  <si>
     <t>7,0</t>
   </si>
   <si>
-    <t>9,0</t>
-  </si>
-  <si>
     <t>8,0</t>
   </si>
   <si>
+    <t>Gebäude</t>
+  </si>
+  <si>
     <t>Projekt</t>
   </si>
   <si>
+    <t>Nutzbarer Raum</t>
+  </si>
+  <si>
     <t>Planungsperimeter</t>
   </si>
   <si>
-    <t>Gebäude</t>
-  </si>
-  <si>
     <t>Geschoss</t>
   </si>
   <si>
-    <t>Nutzbarer Raum</t>
-  </si>
-  <si>
     <t>Luftraum</t>
   </si>
   <si>
+    <t>Türen</t>
+  </si>
+  <si>
     <t>Bruto Geschoss Volumen</t>
   </si>
   <si>
-    <t>Türen</t>
-  </si>
-  <si>
     <t>Fenster</t>
   </si>
   <si>
+    <t>IfcBuilding</t>
+  </si>
+  <si>
     <t>IfcProject</t>
   </si>
   <si>
+    <t>IfcSpace</t>
+  </si>
+  <si>
     <t>IfcSite</t>
   </si>
   <si>
-    <t>IfcBuilding</t>
-  </si>
-  <si>
     <t>IfcBuildingStorey</t>
-  </si>
-  <si>
-    <t>IfcSpace</t>
   </si>
   <si>
     <t>IfcDoor</t>
@@ -636,14 +614,6 @@
 It acts as the central point for organizing all building information, helping team members access and understand the project easily.</t>
   </si>
   <si>
-    <t>A planning perimeter is represented as a single "IfcSite", even if it consists of multiple legal plots.</t>
-  </si>
-  <si>
-    <t>Recommendation: _x000D_
-- Create a separate Building Storey for the foundation._x000D_
-- Coordinate and harmonize the names of the floors early in the process.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Model each usable space as one volume per story without any overlaps:_x000D_
 _x000D_
 - Ideal: From structural slab top to next structural slab bottom_x000D_
@@ -655,6 +625,14 @@
 - Fill every "Void" in the building. e.g. Shafts, Elevators, </t>
   </si>
   <si>
+    <t>A planning perimeter is represented as a single "IfcSite", even if it consists of multiple legal plots.</t>
+  </si>
+  <si>
+    <t>Recommendation: _x000D_
+- Create a separate Building Storey for the foundation._x000D_
+- Coordinate and harmonize the names of the floors early in the process.</t>
+  </si>
+  <si>
     <t>Model "Void" above usable space:_x000D_
 - One volume per story_x000D_
 - Ensure contact with space below/above</t>
@@ -680,14 +658,6 @@
 Es dient als zentraler Punkt für die Organisation aller Bauinformationen und hilft Teammitgliedern, das Projekt leicht zu verstehen und darauf zuzugreifen.</t>
   </si>
   <si>
-    <t>Ein Planungsperimeter wird als eine "IfcSite" dargestellt, auch wenn er aus mehreren baurechtlichen Grundstücken besteht.</t>
-  </si>
-  <si>
-    <t>Empfehlung:_x000D_
-- Erstellen Sie ein separates Geschoss (Building Storey) für das Fundament._x000D_
-- Koordinieren und harmonisieren Sie die Bezeichnungen der Geschosse frühzeitig im Prozess.</t>
-  </si>
-  <si>
     <t>Modellieren Sie jeden nutzbaren Raum als ein Volumen pro Geschoss ohne Überschneidungen:_x000D_
 _x000D_
 Optimal: Von Oberkante Rohdecke bis Unterkante der nächsten Rohdecke_x000D_
@@ -695,6 +665,14 @@
 Alternative: Von Oberkante Nutzfläche bis Unterkante Rohdecke_x000D_
 _x000D_
 Horizontale Ausdehnung: Von Innenwand zu Innenwand, um das gesamte nutzbare Volumen zu erfassen</t>
+  </si>
+  <si>
+    <t>Ein Planungsperimeter wird als eine "IfcSite" dargestellt, auch wenn er aus mehreren baurechtlichen Grundstücken besteht.</t>
+  </si>
+  <si>
+    <t>Empfehlung:_x000D_
+- Erstellen Sie ein separates Geschoss (Building Storey) für das Fundament._x000D_
+- Koordinieren und harmonisieren Sie die Bezeichnungen der Geschosse frühzeitig im Prozess.</t>
   </si>
   <si>
     <t>Modellieren Sie den "Void" über dem nutzbaren Raum:_x000D_
@@ -1437,11 +1415,11 @@
       <c r="AI2" t="s">
         <v>158</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>171</v>
+      <c r="AN2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>152</v>
       </c>
       <c r="AR2" t="s">
         <v>136</v>
@@ -1468,7 +1446,7 @@
         <v>183</v>
       </c>
       <c r="BD2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE2" t="s">
         <v>186</v>
@@ -1541,11 +1519,11 @@
       <c r="AI3" t="s">
         <v>158</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>171</v>
+      <c r="AN3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>152</v>
       </c>
       <c r="AR3" t="s">
         <v>137</v>
@@ -1572,7 +1550,7 @@
         <v>185</v>
       </c>
       <c r="BD3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BE3" t="s">
         <v>186</v>
@@ -1646,16 +1624,10 @@
         <v>159</v>
       </c>
       <c r="AJ4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="AR4" t="s">
         <v>136</v>
@@ -1682,7 +1654,7 @@
         <v>183</v>
       </c>
       <c r="BD4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE4" t="s">
         <v>186</v>
@@ -1756,16 +1728,10 @@
         <v>159</v>
       </c>
       <c r="AJ5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="AR5" t="s">
         <v>137</v>
@@ -1792,7 +1758,7 @@
         <v>185</v>
       </c>
       <c r="BD5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BE5" t="s">
         <v>186</v>
@@ -1833,16 +1799,16 @@
         <v>118</v>
       </c>
       <c r="W6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA6" t="s">
         <v>129</v>
@@ -1865,11 +1831,17 @@
       <c r="AI6" t="s">
         <v>160</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>172</v>
+      </c>
       <c r="AN6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AO6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AR6" t="s">
         <v>136</v>
@@ -1896,7 +1868,7 @@
         <v>183</v>
       </c>
       <c r="BD6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE6" t="s">
         <v>186</v>
@@ -1916,16 +1888,16 @@
     </row>
     <row r="7" spans="1:69">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S7" t="s">
         <v>118</v>
@@ -1949,25 +1921,31 @@
         <v>125</v>
       </c>
       <c r="AA7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC7" t="s">
         <v>138</v>
       </c>
       <c r="AD7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI7" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>173</v>
       </c>
       <c r="AN7" t="s">
         <v>128</v>
@@ -1976,28 +1954,28 @@
         <v>150</v>
       </c>
       <c r="AR7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AU7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AV7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AW7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BA7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BB7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BC7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BD7" t="s">
         <v>141</v>
@@ -2056,7 +2034,7 @@
         <v>130</v>
       </c>
       <c r="AB8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC8" t="s">
         <v>138</v>
@@ -2080,37 +2058,37 @@
         <v>173</v>
       </c>
       <c r="AN8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AR8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AU8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AV8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AW8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AZ8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BA8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BB8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BC8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BD8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BE8" t="s">
         <v>186</v>
@@ -2130,16 +2108,16 @@
     </row>
     <row r="9" spans="1:69">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
         <v>118</v>
@@ -2163,61 +2141,61 @@
         <v>125</v>
       </c>
       <c r="AA9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s">
         <v>138</v>
       </c>
       <c r="AD9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AE9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AO9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AR9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AU9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AV9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AW9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BA9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BB9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BC9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BD9" t="s">
         <v>141</v>
@@ -2261,22 +2239,22 @@
         <v>118</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA10" t="s">
         <v>131</v>
       </c>
       <c r="AB10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC10" t="s">
         <v>138</v>
@@ -2300,37 +2278,37 @@
         <v>174</v>
       </c>
       <c r="AN10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AO10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AR10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AU10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AV10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AW10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AZ10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BA10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BB10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BC10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BD10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BE10" t="s">
         <v>186</v>
@@ -2383,7 +2361,7 @@
         <v>126</v>
       </c>
       <c r="AA11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB11" t="s">
         <v>136</v>
@@ -2392,28 +2370,28 @@
         <v>138</v>
       </c>
       <c r="AD11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN11" t="s">
         <v>131</v>
       </c>
-      <c r="AE11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AO11" t="s">
         <v>153</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>152</v>
       </c>
       <c r="AR11" t="s">
         <v>136</v>
@@ -2440,7 +2418,7 @@
         <v>183</v>
       </c>
       <c r="BD11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE11" t="s">
         <v>186</v>
@@ -2535,7 +2513,7 @@
         <v>154</v>
       </c>
       <c r="AI12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="s">
         <v>169</v>
@@ -2544,10 +2522,10 @@
         <v>175</v>
       </c>
       <c r="AN12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR12" t="s">
         <v>136</v>
@@ -2574,7 +2552,7 @@
         <v>183</v>
       </c>
       <c r="BD12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE12" t="s">
         <v>186</v>
@@ -2623,9 +2601,6 @@
       <c r="U13" t="s">
         <v>118</v>
       </c>
-      <c r="V13" t="s">
-        <v>118</v>
-      </c>
       <c r="W13" t="s">
         <v>120</v>
       </c>
@@ -2639,7 +2614,7 @@
         <v>126</v>
       </c>
       <c r="AA13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB13" t="s">
         <v>136</v>
@@ -2648,28 +2623,28 @@
         <v>138</v>
       </c>
       <c r="AD13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN13" t="s">
         <v>131</v>
       </c>
-      <c r="AE13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF13" t="s">
+      <c r="AO13" t="s">
         <v>153</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>152</v>
       </c>
       <c r="AR13" t="s">
         <v>136</v>
@@ -2696,7 +2671,7 @@
         <v>183</v>
       </c>
       <c r="BD13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE13" t="s">
         <v>186</v>
@@ -2719,7 +2694,7 @@
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -2746,49 +2721,43 @@
         <v>118</v>
       </c>
       <c r="W14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AB14" t="s">
         <v>136</v>
       </c>
       <c r="AC14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN14" t="s">
         <v>131</v>
       </c>
-      <c r="AE14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF14" t="s">
+      <c r="AO14" t="s">
         <v>153</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>152</v>
       </c>
       <c r="AR14" t="s">
         <v>136</v>
@@ -2815,22 +2784,22 @@
         <v>183</v>
       </c>
       <c r="BD14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BI14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BM14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BN14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BQ14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:69">
@@ -2838,7 +2807,7 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>96</v>
@@ -2880,7 +2849,7 @@
         <v>126</v>
       </c>
       <c r="AA15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s">
         <v>137</v>
@@ -2889,16 +2858,16 @@
         <v>138</v>
       </c>
       <c r="AD15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="s">
         <v>170</v>
@@ -2907,10 +2876,10 @@
         <v>176</v>
       </c>
       <c r="AN15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR15" t="s">
         <v>137</v>
@@ -2937,7 +2906,7 @@
         <v>185</v>
       </c>
       <c r="BD15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BE15" t="s">
         <v>186</v>
@@ -2957,79 +2926,58 @@
     </row>
     <row r="16" spans="1:69">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S16" t="s">
         <v>118</v>
       </c>
       <c r="W16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AB16" t="s">
         <v>136</v>
       </c>
       <c r="AC16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN16" t="s">
         <v>131</v>
       </c>
-      <c r="AE16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF16" t="s">
+      <c r="AO16" t="s">
         <v>153</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>152</v>
       </c>
       <c r="AR16" t="s">
         <v>136</v>
@@ -3056,36 +3004,39 @@
         <v>183</v>
       </c>
       <c r="BD16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BI16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BM16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BN16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BQ16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:69">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
       </c>
       <c r="I17" t="s">
         <v>117</v>
@@ -3099,50 +3050,53 @@
       <c r="L17" t="s">
         <v>117</v>
       </c>
-      <c r="T17" t="s">
-        <v>118</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="S17" t="s">
         <v>118</v>
       </c>
       <c r="W17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AB17" t="s">
         <v>136</v>
       </c>
       <c r="AC17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AE17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AI17" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>172</v>
       </c>
       <c r="AN17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR17" t="s">
         <v>136</v>
@@ -3169,36 +3123,36 @@
         <v>183</v>
       </c>
       <c r="BD17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BI17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BM17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BN17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:69">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T18" t="s">
         <v>118</v>
@@ -3240,10 +3194,10 @@
         <v>164</v>
       </c>
       <c r="AN18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR18" t="s">
         <v>136</v>
@@ -3270,7 +3224,7 @@
         <v>183</v>
       </c>
       <c r="BD18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE18" t="s">
         <v>187</v>
@@ -3293,13 +3247,13 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S19" t="s">
         <v>118</v>
@@ -3317,7 +3271,7 @@
         <v>125</v>
       </c>
       <c r="AA19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB19" t="s">
         <v>136</v>
@@ -3326,22 +3280,22 @@
         <v>139</v>
       </c>
       <c r="AD19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR19" t="s">
         <v>136</v>
@@ -3368,7 +3322,7 @@
         <v>183</v>
       </c>
       <c r="BD19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE19" t="s">
         <v>187</v>
@@ -3391,55 +3345,79 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="S20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" t="s">
+        <v>118</v>
+      </c>
+      <c r="U20" t="s">
+        <v>118</v>
+      </c>
+      <c r="V20" t="s">
         <v>118</v>
       </c>
       <c r="W20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AB20" t="s">
         <v>136</v>
       </c>
       <c r="AC20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AE20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AI20" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>172</v>
       </c>
       <c r="AN20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR20" t="s">
         <v>136</v>
@@ -3466,22 +3444,22 @@
         <v>183</v>
       </c>
       <c r="BD20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BI20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BM20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BN20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BQ20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
